--- a/ResultadoEleicoesDistritos/SANTARÉM_CHAMUSCA.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_CHAMUSCA.xlsx
@@ -597,25 +597,25 @@
         <v>2267</v>
       </c>
       <c r="H2" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I2" t="n">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="J2" t="n">
-        <v>954</v>
+        <v>898</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -624,37 +624,37 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S2" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="T2" t="n">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="V2" t="n">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
